--- a/data/5_results/unknow/result_unknow_4.xlsx
+++ b/data/5_results/unknow/result_unknow_4.xlsx
@@ -436,12 +436,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="4" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
@@ -502,2861 +502,2531 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Upper Wire Size</t>
+          <t>upper wire size</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>86,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Upper Wire Material</t>
+          <t>upper wire material</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>83,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lower Wire Size</t>
+          <t>lower wire size</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>81,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lower Wire Material</t>
+          <t>lower wire material</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>78,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Changed Upper Arch Wire</t>
+          <t>changed upper arch wire</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>81,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Changed Lower Arch Wire</t>
+          <t>changed lower arch wire</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>78,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ligature Method</t>
+          <t>ligature method</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Oral Hygiene</t>
+          <t>oral hygiene</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>41,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Elastic Pattern Left</t>
+          <t>elastic pattern left</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>38,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Right Canine Class</t>
+          <t>right canine class</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Left Canine Class</t>
+          <t>left canine class</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>37,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Right Molar Class</t>
+          <t>right molar class</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>42,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Left Molar Class</t>
+          <t>left molar class</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Class II elastic</t>
+          <t>class ii elastic</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>37,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Elastic Pattern Right</t>
+          <t>elastic pattern right</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>34,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>compliance</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>33,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Overjet (mm)</t>
+          <t>overjet (mm)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Elastic Type Left</t>
+          <t>elastic type left</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Elastic Type Right</t>
+          <t>elastic type right</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overbite (mm)</t>
+          <t>overbite (mm)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Debonded Bracket</t>
+          <t>debonded bracket</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lower Retainer</t>
+          <t>lower retainer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Emergency Type</t>
+          <t>emergency type</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,10</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Upper Retainer</t>
+          <t>upper retainer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Space closure sliding mechanics</t>
+          <t>space closure sliding mechanics</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Photos taken</t>
+          <t>photos taken</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Upper Arch Bends</t>
+          <t>upper arch bends</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Class I elastic</t>
+          <t>class i elastic</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Class III elastic</t>
+          <t>class iii elastic</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Appliance</t>
+          <t>appliance</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lower Arch Bends</t>
+          <t>lower arch bends</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Retainer Check</t>
+          <t>retainer check</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Xrays taken</t>
+          <t>xrays taken</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intra Oral Scanning Taken</t>
+          <t>intra oral scanning taken</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EMERGENCY</t>
+          <t>emergency</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lower Arch Reverse Curve of Spee</t>
+          <t>lower arch reverse curve of spee</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bracket OR BAND Repositioning</t>
+          <t>bracket or band repositioning</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Open Spring</t>
+          <t>open spring</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Upper Bonding</t>
+          <t>upper bonding</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>ipr</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Re-tie Appointment</t>
+          <t>re-tie appointment</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lower Bonding</t>
+          <t>lower bonding</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Posterior Bite Turbos</t>
+          <t>posterior bite turbos</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cross Elastic</t>
+          <t>cross elastic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Upper Arch Accentuated Curve of Spee</t>
+          <t>upper arch accentuated curve of spee</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Upper Debond</t>
+          <t>upper debond</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lower Debond</t>
+          <t>lower debond</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TADs</t>
+          <t>tads</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Prescription and Bracket Slot</t>
+          <t>prescription and bracket slot</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TMJ symptoms</t>
+          <t>tmj symptoms</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enameloplasty</t>
+          <t>enameloplasty</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Referral</t>
+          <t>referral</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Unilateral Posterior Crossbite</t>
+          <t>unilateral posterior crossbite</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Extractions</t>
+          <t>extractions</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>tpa</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3466,209 +3136,185 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Relapse</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Upper Active movement</t>
+          <t>upper active movement</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lower Active movement</t>
+          <t>lower active movement</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Closed Spring</t>
+          <t>closed spring</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -3778,53 +3424,47 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NiTi Closing Spring</t>
+          <t>niti closing spring</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -3882,53 +3522,47 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TADs.1</t>
+          <t>tads.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3986,53 +3620,47 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Maxillary Expander</t>
+          <t>maxillary expander</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4142,105 +3770,93 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Debonded Bracket/Band</t>
+          <t>debonded bracket/band</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lower Arch Curve of Spee</t>
+          <t>lower arch curve of spee</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4350,53 +3966,47 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lower Arch Accentuated Curve of Spee</t>
+          <t>lower arch accentuated curve of spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -4610,53 +4220,47 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Arch Coordination</t>
+          <t>arch coordination</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +4417,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
